--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirit\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dosto\Desktop\Работа\Emehmon\бот\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898AD6FF-49E3-4522-83C4-5FEE3BF8BDDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65C0497-8B4F-4F6D-A4C4-DF9A02281A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="422">
   <si>
     <t>Калит созлар</t>
   </si>
@@ -241,16 +241,10 @@
     <t>korrektirovka,deyapti</t>
   </si>
   <si>
-    <t>registratsiya,topmayapti</t>
-  </si>
-  <si>
     <t>kiritolmayabman,korrekstirovkaga</t>
   </si>
   <si>
     <t>regstratsiya,bo'lmayapti</t>
-  </si>
-  <si>
-    <t>danilari,chiqmayapti</t>
   </si>
   <si>
     <t>mehmon,topilmadi</t>
@@ -269,76 +263,7 @@
 Ushbu qoidalar faqat xorijlik mehmonlarni joylashtirish vositalarida ro‘yxatdan o‘tishda (O‘zbekiston Respublikasi fuqarolari va fuqaroligi bo‘lmagan shaxslar bundan mustasno) amal qiladi.</t>
   </si>
   <si>
-    <t>система,оплаты</t>
-  </si>
-  <si>
-    <t>оплатил,не работает</t>
-  </si>
-  <si>
-    <t>абонентскую плату,не функционирует</t>
-  </si>
-  <si>
-    <t>не работает,оплатил</t>
-  </si>
-  <si>
-    <t>оплата,не запускается</t>
-  </si>
-  <si>
-    <t>не работает,оплаты</t>
-  </si>
-  <si>
-    <t>абонентскую плату,неактивна</t>
-  </si>
-  <si>
-    <t>оплаты,не функционирует</t>
-  </si>
-  <si>
-    <t>оплаты,не работает</t>
-  </si>
-  <si>
-    <t>активируется,абонентской платы</t>
-  </si>
-  <si>
-    <t>абон плату,включат</t>
-  </si>
-  <si>
-    <t>включат,оплата прошла</t>
-  </si>
-  <si>
-    <t>Отправьте нам в личные сообщения на @emehmon платежное поручение, номер договора или ИНН средства размещения. Мы проверим его и вскоре внесем ваши деньги в депозит.</t>
-  </si>
-  <si>
-    <t>не находит,гостя</t>
-  </si>
-  <si>
-    <t>регистрации,не находит гостя</t>
-  </si>
-  <si>
-    <t>гости из Бангладеш,корректировка персон</t>
-  </si>
-  <si>
-    <t>регистрация,не возможно</t>
-  </si>
-  <si>
-    <t>зарегистрировать иностранца,корректировку</t>
-  </si>
-  <si>
-    <t>сделать,корректировку</t>
-  </si>
-  <si>
-    <t>гостя,не находит</t>
-  </si>
-  <si>
-    <t>не вносятся,корректировка</t>
-  </si>
-  <si>
-    <t>не могу зарегистрировать,корректировку</t>
-  </si>
-  <si>
-    <t>гость,не найден</t>
-  </si>
-  <si>
-    <t>гостя,не нашли</t>
+    <t>не регаются,иностранцы</t>
   </si>
   <si>
     <t>Обратите внимание на корректность заполнения данных при регистрации. Также уточните у гостя относительно паспорта: регистрация возможна только с паспортом, с которым гость пересек границу.
@@ -348,25 +273,187 @@
 Эти правила действуют только для иностранных гостей при регистрации в средствах размещения (за исключением граждан РУз и лиц без гражданства).</t>
   </si>
   <si>
-    <t>регистрировать,размещения</t>
-  </si>
-  <si>
-    <t>заключить,договор</t>
-  </si>
-  <si>
-    <t>Для заключения договора средства размещения должны получить сертификат. Для этого вы должны обратиться в отдел сертификации (95 199-15-00). После этого необходимо связаться с нами для оформления договора, который заключается на основании данного сертификата.</t>
-  </si>
-  <si>
-    <t>горит,желтым</t>
-  </si>
-  <si>
-    <t>горит,жёлтый</t>
-  </si>
-  <si>
-    <t>горит,красный</t>
-  </si>
-  <si>
-    <t>горит,красным</t>
+    <t>не могу зарегистрировать</t>
+  </si>
+  <si>
+    <t>не получается зарегистрировать</t>
+  </si>
+  <si>
+    <t>годовой отчет,емехмондан</t>
+  </si>
+  <si>
+    <t>Чикиш варакаларига утиб "Лупа" белгиси туширилган "Глобальный поиск" тугмасини босинг, узингизга керакли муддатни танланг ва кидирув тугмасини босинг. Факат керакли муддатни узини тулдирсангиз булади, барча маълумотларни тулдириб кидиришингиз шарт эмас</t>
+  </si>
+  <si>
+    <t>тур сбор,со скольки лет</t>
+  </si>
+  <si>
+    <t>до 16 лет тур сбор не взимается так как вы не регистрируете отдельно а только прикрепляете к сопровождающему лицу</t>
+  </si>
+  <si>
+    <t>нужно ли регистрироваться</t>
+  </si>
+  <si>
+    <t>Информация о без регистрационном периоде:
+Россия - 15 дней
+Таджикистан - 10 дней
+Казахстан - 5 дней
+Азербайджан - 15 дней
+ОАЭ - 30 дней
+Другие страны - 3 дня
+Однако, средства размещения обязаны регистрировать гостей сразу по прибытию.
+В соответствии с постановлением Кабинета Министров Республики Узбекистан № 433 от 10 июля 2020 года «О мерах по созданию благоприятных условий для восстановления и развития туристической отрасли в Республике Узбекистан», в целях совершенствования системы мониторинга передвижения местных и иностранных граждан по территории Республики, разработки на основе полученной информации дальнейших планов и их эффективной реализации, в вышеуказанные процедуры были внесены соответствующие изменения.
+Теперь все лица, воспользовавшиеся услугами средств размещения, включая граждан Республики Узбекистан, иностранных граждан и лиц без гражданства, должны учитываться в гостиницах, лечебных учреждениях, санаториях, домах отдыха и других учреждениях на основании документов, подтверждающих личность, администрацией этих учреждений путем внесения в автоматизированную информационную систему «E-Mehmon».
+Регистрация ведется не в течение 12 часов, как раньше, а в момент прибытия, независимо от срока пребывания и периодичности прибытия.
+Руководителям гостиниц, лечебных учреждений, санаториев, домов отдыха и других организаций, оказывающих услуги по размещению, предлагается строго соблюдать данный порядок.</t>
+  </si>
+  <si>
+    <t>не выходит данные визы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если у гостя нет визы, просто пропустите все поля, связанные с визой (тип визита и тип гостя не связаны с визой, не путайте их с данными визы).
+Всегда уточняйте актуальные данные визы, так как система использует и заполняет только те данные, которые предоставляются со стороны ОВИР. Если у гостя есть новая виза, удалите старые данные визы и заполните актуальные данные.
+</t>
+  </si>
+  <si>
+    <t>без регистрации,сколько</t>
+  </si>
+  <si>
+    <t>без регистраций</t>
+  </si>
+  <si>
+    <t>be registratsiya</t>
+  </si>
+  <si>
+    <t>"Ro'yxatdan o'tmasdan yurish davri haqida ma'lumot:
+Rossiya - 15 kun
+Tojikiston - 10 kun
+Qozog'iston - 5 kun
+Ozarbayjon - 15 kun
+BAA - 30 kun
+Boshqa mamlakatlar - 3 kun
+Biroq, turar joy binolari mehmonlarni kelgandan so'ng darhol ro'yxatga olishlari kerak.
+O‘zbekiston Respublikasi Vazirlar Mahkamasining 2020-yil 10-iyuldagi “O‘zbekiston Respublikasida turizm sohasini tiklash va rivojlantirish uchun qulay shart-sharoitlar yaratish chora-tadbirlari to‘g‘risida”gi 433-son qaroriga muvofiq mahalliy va xorijiy fuqarolarning respublika hududi boʻylab harakatlanishini monitoring qilish tizimi, ishlanmalar asosida kelgusi rejalar va ularni samarali amalga oshirish yuzasidan olingan maʼlumotlardan kelib chiqib, yuqoridagi tartiblarga tegishli oʻzgartirishlar kiritildi.
+Endilikda turar joy muassasalari xizmatlaridan foydalangan barcha shaxslar, shu jumladan O‘zbekiston Respublikasi fuqarolari, chet el fuqarolari va fuqaroligi bo‘lmagan shaxslar mehmonxonalar, tibbiyot muassasalari, sanatoriylar, dam olish uylari va boshqa muassasalarda shaxsini tasdiqlovchi hujjatlar asosida mazkur muassasalar ma’muriyati “E-Mehmon” avtomatlashtirilgan axborot tizimiga kirish orqali ro‘yxatdan o‘tishlari shart.
+Ro'yxatdan o'tish avvalgidek 12 soat ichida emas, balki kelish vaqtida, qolish muddatidan qat'i nazar, amalga oshiriladi.
+Mehmonxonalar, tibbiyot muassasalari, sanatoriylar, dam olish uylari va joylashtirish xizmatlarini ko‘rsatuvchi boshqa tashkilotlar rahbarlaridan ushbu tartibga qat’iy rioya etishlari so‘raladi”.</t>
+  </si>
+  <si>
+    <t>без регистрация,неча кун</t>
+  </si>
+  <si>
+    <t>Emehmondan Chiqib Ketildi,esimizda yo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loginni tiklash uchun bizga Telegram orqali @emehmon manziliga yozing. </t>
+  </si>
+  <si>
+    <t>Login parol, ошибка</t>
+  </si>
+  <si>
+    <t>Нужно регистрировать</t>
+  </si>
+  <si>
+    <t>приложение,Emehmon</t>
+  </si>
+  <si>
+    <t>К сожалению, нет приложений, вход возможен только через сайт emehmon.uz.</t>
+  </si>
+  <si>
+    <t>не можем зарегистрировать</t>
+  </si>
+  <si>
+    <t>оплатили абонен.плату</t>
+  </si>
+  <si>
+    <t>Отправьте нам в личные сообщения на @emehmon платежное поручение. Мы проверим его и вскоре внесем ваши деньги в депозит.</t>
+  </si>
+  <si>
+    <t>турсборни текшириш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур.егим тугмасига босасиз ва Хисобот булимига утасиз, керакли тур егим турини ва ойини танлаб кидирув тугмасини босасиз </t>
+  </si>
+  <si>
+    <t>Сколько,находиться,граждане</t>
+  </si>
+  <si>
+    <t>Сколько,находиться,гражданам</t>
+  </si>
+  <si>
+    <t>айди,гости,не могу заселить</t>
+  </si>
+  <si>
+    <t>akt sverkani,tursbordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Туризмга мурожаат килинг </t>
+  </si>
+  <si>
+    <t>tulov,qilgan edik,ishlamayapti</t>
+  </si>
+  <si>
+    <t>абонентская плата,канча</t>
+  </si>
+  <si>
+    <t>Abonent to'lovi oyiga mehmonlarni ro'yxatdan o'tkazish soniga qarab olinadi:
+0 dan 10 gacha mehmonlar - bepul
+11 dan 20 ta mehmongacha - 69 000 so'm
+21 va undan yuqori - 138 000 so'm</t>
+  </si>
+  <si>
+    <t>не совершенно летнего,заселить</t>
+  </si>
+  <si>
+    <t>Отдельная регистрация гостей младше 16 лет невозможна. Достаточно прикрепить их через раздел "Информация о детях" к сопровождающему лицу.</t>
+  </si>
+  <si>
+    <t>E MEHMONGA KIRMAYABDI</t>
+  </si>
+  <si>
+    <t>qo'sholmayapmoz,e-mehmon</t>
+  </si>
+  <si>
+    <t>гость не найден,ошибка</t>
+  </si>
+  <si>
+    <t>Если вы физическое лицо и при регистрации гость не был найден:
+Обратите внимание на корректность заполнения данных при регистрации. Также уточните у гостя относительно паспорта: регистрация возможна только с паспортом, с которым гость пересек границу.
+Если все данные указаны корректно, включая правильный паспорт, но гость иностранец не найден в базе, вам потребуется обратиться в ОВИР для регистрации, так как данные в базе пограничной службы скорее всего неправильно внесены</t>
+  </si>
+  <si>
+    <t>pul,kirita olmayapmiz</t>
+  </si>
+  <si>
+    <t>графе,нет визы</t>
+  </si>
+  <si>
+    <t>пайнет или клик,задолженность</t>
+  </si>
+  <si>
+    <t>Вы можете оплатить через банк или с помощью Payme/Click. Выберите "тип оплаты" как "Оплата на расчетный счёт" в приложении, заполните реквизитные данные, обязательно укажите номер ИНН или номер договора в поле назначения платежа.
+📋 ООО «E-MEHMON»
+Юридический адрес: г. Ташкент, ул. Ойбек, 18
+Почтовый адрес: г. Ташкент, ул. Ойбек, 18
+Телефон: +99871 200-71-00, +99895 144-72-00
+Банк: АИКБ «Ипак Йули» Р/с 2020 8000 8055 4123 0001, Мирабадский филиал
+МФО 01101, ИНН: 309666145, ОКЭД: 62010
+E-mail: info@kabus.uz</t>
+  </si>
+  <si>
+    <t>топилмаяпти,мехмон</t>
+  </si>
+  <si>
+    <t>зарегистрировать,ребёнок</t>
+  </si>
+  <si>
+    <t>necha kun,bez regstratsiya</t>
+  </si>
+  <si>
+    <t>предыдущая виза,стоит</t>
+  </si>
+  <si>
+    <t>горит красным,листе</t>
   </si>
   <si>
     <t>Если регистрационный листок гостя горит красным, это означает, что срок визы гостя истек. В таких случаях уточните у гостя, есть ли новая продленная виза. Если есть, сделайте чек-аут и зарегистрируйте гостя заново с новыми данными.
@@ -374,74 +461,979 @@
 Если у гостя нет новой визы или он не подал документы на продление, обратитесь в ОВИР.</t>
   </si>
   <si>
-    <t>"Если регистрационный листок гостя горит жёлтым, это означает, что до окончания срока визы гостя осталось 3 дня. Уточните у гостя, планирует ли он продлить визу.
-Если гость уже подал документы на продление, запросите у него соответствующую ""Справку"" — документ, выдаваемый в ОВИРе. С этим документом вы сможете временно продлить срок визы. Для этого выберите гостя, нажмите правой кнопкой мыши и выберите кнопку ""Продлить визу"".
-Если гость ещё не подал документы на продление, напомните ему о необходимости сделать это. В случае, если гость не планирует продлевать визу, уточните дату выезда и подготовьте всё необходимое для своевременного оформления чек-аута.</t>
-  </si>
-  <si>
-    <t>тур сбор,куда</t>
-  </si>
-  <si>
-    <t>Для оплаты туристического сбора используйте следующие реквизиты:
-Получатель: Казначейство Министерства финансов Республики Узбекистан
-Расчетный счет: 2340 2000 3001 0000 1010
-МФО: 00014
-ИНН: 201 122 919
-Банк: РКЦ ГУ ЦБ (г. Ташкент)
-Описание платежа:
-Государственный комитет по развитию туризма Республики Узбекистан
-Лицевой счет: 3041 1086 0726 2663 4223 83245
-ИНН: 200 523 578
-Если необходимо оплатить пеню за просроченный туристический сбор:
-Получатель: Ўзбекистон Республикаси Молия вазирлиги Ғазначилиги
-Расчетный счет: 2340 2000 3001 0000 1010
-МФО: 00014
-ИНН: 201 122 919
-Банк: РКЦ ГУ ЦБ (г. Ташкент)
-Лицевой счет: 3041 1086 0526 2663 4309 00245
-Для получения дополнительной информации вы можете обратиться в Государственный комитет по развитию туризма Республики Узбекистан.
-Контактный телефон: +998 (71) 200-00-88</t>
-  </si>
-  <si>
-    <t>тур сбор,стоит</t>
-  </si>
-  <si>
-    <t>туристский сбор,куда</t>
-  </si>
-  <si>
-    <t>туристский сбор,как</t>
-  </si>
-  <si>
-    <t>туристический сбор,куда</t>
-  </si>
-  <si>
-    <t>туристический сбор,как</t>
-  </si>
-  <si>
-    <t>туристический сбор,оплатить</t>
-  </si>
-  <si>
-    <t>тур сбор,оплатить</t>
+    <t>Регистрация,бўлмаяпти</t>
+  </si>
+  <si>
+    <t>bo`lmayaptiku,registratsiya</t>
+  </si>
+  <si>
+    <t>16 лет,зарегистрировать</t>
+  </si>
+  <si>
+    <t>registratsiyasiz,necha kun</t>
+  </si>
+  <si>
+    <t>неча кун,без регистрации</t>
+  </si>
+  <si>
+    <t>кадастр,не показывает</t>
+  </si>
+  <si>
+    <t>кадастры автоматом подтягиваются после нажатие на кнопку "Получить кадастры" в разделе "Мои кадастры" при условии вошедший в систему пользователь через OneID имеет на своем имени кадастры (т.е. является владельцем)</t>
+  </si>
+  <si>
+    <t>регистрацию,надо делать,?</t>
+  </si>
+  <si>
+    <t>не получается,зарегистрировать</t>
+  </si>
+  <si>
+    <t>kiritolmayapmiz,mexmonimizni</t>
+  </si>
+  <si>
+    <t>kodini,qanday,emehmonni,bo'ladi</t>
+  </si>
+  <si>
+    <t>Loginni tiklash uchun bizga Telegram orqali @emehmon manziliga yozing.</t>
+  </si>
+  <si>
+    <t>могут,проживать,без прописки</t>
+  </si>
+  <si>
+    <t>тур сбор,взымается,возраста</t>
+  </si>
+  <si>
+    <t>красным,выделился</t>
+  </si>
+  <si>
+    <t>найти,гостя,проживал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для этого перейдите в раздел листок убытия, нажмине на кнопку глобальный поиск (значек лупы), укажите период прибытия или убытия гостя и нажмите на поиск </t>
+  </si>
+  <si>
+    <t>просроченного,сертификата</t>
+  </si>
+  <si>
+    <t>Если вы получили новый сертификат отправьте скан нам по телеграму @emehmon</t>
+  </si>
+  <si>
+    <t>necha kun,bez register</t>
+  </si>
+  <si>
+    <t>коррекцию,не получается,зарегистрировать</t>
+  </si>
+  <si>
+    <t>registraciya,nechi kun</t>
+  </si>
+  <si>
+    <t>регистратсия,булмайопти</t>
+  </si>
+  <si>
+    <t>корректировки,обратиться</t>
+  </si>
+  <si>
+    <t>Запросы, отправленные на корректировку, рассматривает ваш районный ОВИР.</t>
+  </si>
+  <si>
+    <t>topsa,mehmonlarni</t>
+  </si>
+  <si>
+    <t>registratsiya,bo'lmayapti</t>
+  </si>
+  <si>
+    <t>bez regstrasyaga,nechikun</t>
+  </si>
+  <si>
+    <t>KORREKTIROVKA,DIYAPTI</t>
+  </si>
+  <si>
+    <t>neci kungaca,rassiya</t>
+  </si>
+  <si>
+    <t>без регистрация,фукароси</t>
+  </si>
+  <si>
+    <t>зайчика</t>
+  </si>
+  <si>
+    <t>Здравствуйте, "гость заяц " выходит тогда когда вашему гостю не сделали check out при выселении с предыдущей  гостиницы, вы можете позвонить по указанному номеру в уведомлении и предупредить их</t>
+  </si>
+  <si>
+    <t>ne mogu,zayti,account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чтобы восстановить доступ, напишите нам в Telegram на @emehmon. </t>
+  </si>
+  <si>
+    <t>qizil bob qoldi</t>
+  </si>
+  <si>
+    <t>Agar mehmonning ro'yxatdan o'tish varag'i qizil rangda bo'lsa, bu mehmon vizasi muddati tugaganligini anglatadi. Bunday hollarda, mehmonda  yangi  viza mavjudligini tekshiring. Agar mavjud bo'lsa, chek out qilib mehmonni yangi ma'lumotlar bilan qayta ro'yxatdan o'tkazing.
+Agar mehmon cho'zdirish  uchun hujjatlarni topshirgan bo'lsa, unda OVIRdan berilgan tegishli " hujjat " bo'lishi kerak . Ushbu hujjat yordamida siz viza muddatini vaqtincha uzaytira olasiz. Buning uchun mehmonni tanlang, sichqonchaning o'ng tugmachasini bosing va "vizani uzaytirish"tugmachasini tanlang.
+Agar mehmonda yangi viza bo'lmasa yoki yangilanish uchun hujjatlarini topshirmagan bo'lsa, OVIRga murojaat qiling.</t>
+  </si>
+  <si>
+    <t>qancha,registratsiyasiz</t>
+  </si>
+  <si>
+    <t>yashash guvohnomasi,Chet el</t>
+  </si>
+  <si>
+    <t>fuqarolikda Stateless person танлаб регистрация килишингиз мумкин булади</t>
+  </si>
+  <si>
+    <t>УЧЁТНАЯ,НЕ АКТИВНА</t>
+  </si>
+  <si>
+    <t>Чтобы восстановить доступ, напишите нам в Telegram на @emehmon.</t>
+  </si>
+  <si>
+    <t>нечи кун,регистрациясиз</t>
+  </si>
+  <si>
+    <t>Регистрация запрещена</t>
+  </si>
+  <si>
+    <t>Обратите внимание на корректность заполнения данных при регистрации. Также уточните у гостя относительно паспорта: регистрация возможна только с паспортом, с которым гость пересек границу.
+Если все данные указаны корректно, включая правильный паспорт, но гость иностранец не найден в базе, вы должны обратиться в ОВИР для регистрации.
+Также физические лица могут регистрировать гостей максимум до 30 дней с момента прибытия в страну. Чтобы продлить или зарегистрировать на более долгий срок, вы должны обратиться в ОВИР.</t>
+  </si>
+  <si>
+    <t>16,to'lmagan</t>
+  </si>
+  <si>
+    <t>16 yoshgacha bo'lgan mehmonlar alohida ro'yxatdan o'tishlari mumkin emas. Ularni "Bolalar haqida ma'lumot" bo'limi orqali hamrohlik qiluvchi shaxsga biriktirish kifoya.</t>
+  </si>
+  <si>
+    <t>Гость заяц</t>
+  </si>
+  <si>
+    <t>без визы,какой тип</t>
+  </si>
+  <si>
+    <t>гражданам,зарегистрироваться,нужно</t>
+  </si>
+  <si>
+    <t>емехмон,реквизиты</t>
+  </si>
+  <si>
+    <t>📋 ООО «E-MEHMON»
+Юридический адрес: г. Ташкент, ул. Ойбек, 18
+Почтовый адрес: г. Ташкент, ул. Ойбек, 18
+Телефон: +99871 200-71-00, +99895 144-72-00
+Банк: АИКБ «Ипак Йули» Р/с 2020 8000 8055 4123 0001, Мирабадский филиал
+МФО 01101, ИНН: 309666145, ОКЭД: 62010
+E-mail: info@kabus.uz</t>
+  </si>
+  <si>
+    <t>e mehmon,qarz,click</t>
+  </si>
+  <si>
+    <t>berasizmi,rekvizitlarizni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+📋 E-MEHMON MCHJ
+Yuridik manzili: Toshkent sh. Oybek, 18 yosh
+Pochta manzili: Toshkent sh. Oybek, 18 yosh
+Telefon: +99871 200-71-00, +99895 144-72-00
+Bank: AIKB “Ipak yo‘li” Hisob raqami 2020 8000 8055 4123 0001, Mirobod filiali
+MFO 01101, INN: 309666145, OKED: 62010
+E-mail: info@kabus.uz</t>
+  </si>
+  <si>
+    <t>bez reg,nechkun</t>
+  </si>
+  <si>
+    <t>регистрироваться,граждане,времени</t>
+  </si>
+  <si>
+    <t>нужна ли,регистрация</t>
+  </si>
+  <si>
+    <t>registratsiya,bo'lmayabdi</t>
+  </si>
+  <si>
+    <t>kiritib bolmadi</t>
+  </si>
+  <si>
+    <t>qilib bulmayapti,registratsiya</t>
+  </si>
+  <si>
+    <t>регистрировать,ID</t>
+  </si>
+  <si>
+    <t>не могу оформить,id</t>
+  </si>
+  <si>
+    <t>киритиб бумаяпти</t>
+  </si>
+  <si>
+    <t>киритиб булмаяпти</t>
+  </si>
+  <si>
+    <t>кирита олмаябман</t>
+  </si>
+  <si>
+    <t>киритолмаяпмиза</t>
+  </si>
+  <si>
+    <t>горят красным</t>
+  </si>
+  <si>
+    <t>сделали корректировку,До сих пор</t>
+  </si>
+  <si>
+    <t>После отправки ваша заявка будет рассмотрена органами МВД/ОВИР. По получении уведомления о статусе вашего запроса, в случае одобрения, статус изменится на "Одобрено", и вы сможете зарегистрировать данного гостя.
+Если статус вашего запроса будет изменен на "Возвращен на доработку", вам необходимо дважды кликнуть на запрос, чтобы увидеть комментарий с указанием причины возврата. После исправления недостатков необходимо повторно отправить запрос.
+Запросы, отправленные на корректировку, рассматривает ваш районный ОВИР. Для получения информации о отправленном запросе обратитесь к ним.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">видом на жительство,как </t>
+  </si>
+  <si>
+    <t>Если у гостя вид на жительство с постоянной пропиской то в графе гражданство выбираете STATELESS PERSON</t>
+  </si>
+  <si>
+    <t>e.mehmon,тариф</t>
+  </si>
+  <si>
+    <t>Абонентская плата взимается исходя из количества регистраций гостей в месяц:
+от 0 до 10 гостей — бесплатно
+от 11 до 20 гостей — 69 000 сум
+от 21 и выше — 138 000 сум</t>
+  </si>
+  <si>
+    <t>не регистрируются</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАК,ПОПЛНИТЬ,СЧЕТ </t>
+  </si>
+  <si>
+    <t>абонент тулови,туланди,ишламаябди</t>
+  </si>
+  <si>
+    <t>тулов амалга оширилди,Ишламаяпти</t>
+  </si>
+  <si>
+    <t>yog,ishlagini,tashigandik</t>
+  </si>
+  <si>
+    <t>жёлтые,программе</t>
+  </si>
+  <si>
+    <t>регистрационный листок гостя горит желтым когда до окончания срока визы остается 3 дня. В таких случаях уточните у гостя, есть ли новая продленная виза. Если есть, сделайте чек-аут и зарегистрируйте гостя заново с новыми данными.
+Если гость подал документы на продление, у него должна быть соответствующая "Справка" — документ, который выдают в ОВИРе. С этим документом вы можете временно продлить срок визы. Для этого выберите гостя, нажмите правой кнопкой мыши и выберите кнопку "Продлить визу".
+Если у гостя нет новой визы или он не подал документы на продление, обратитесь в ОВИР.</t>
+  </si>
+  <si>
+    <t>Сайт,силкасини</t>
+  </si>
+  <si>
+    <t>emehmon.uz</t>
+  </si>
+  <si>
+    <t>регистратциясиз,канча,юролиди</t>
+  </si>
+  <si>
+    <t>registrasiya,qilolmayapmiz</t>
+  </si>
+  <si>
+    <t>корректировке,error</t>
+  </si>
+  <si>
+    <t>Если не получается отправить запрос на корректировку, попробуйте перезагрузить сайт, заново заполнить все поля, загрузить нужные фотографии (обратите внимание на размер и формат) и отправить запрос снова.</t>
+  </si>
+  <si>
+    <t>to'lagandik,ochilmadi</t>
+  </si>
+  <si>
+    <t>vizasi tugagan</t>
+  </si>
+  <si>
+    <t>ОВиРга мурожаат килишингиз керак</t>
+  </si>
+  <si>
+    <t>не могу заселить,виза,просроченная</t>
+  </si>
+  <si>
+    <t>начисления,ночей</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сразу после регистрации взимается туристический сбор за 1 сутки, 1 день засчитывается в 24+3 часа. Если "check out" не произведен в течение этого времени, система начинает отсчет 2-го дня.</t>
+  </si>
+  <si>
+    <t>как войти,кабинет физ лица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Переходите на сайт reg.emehmon.uz , нажимаете на кнопку "Вход". 
+2.Вас перекинет на сайт ONE ID, через который должен пройти регистрацию владелец квартиры указав свои паспортные данные.
+3.После успешной регистрации снова переходите на сайт reg.emehmon.uz </t>
+  </si>
+  <si>
+    <t>your account is not active</t>
+  </si>
+  <si>
+    <t>ma'lumotlarini,kiritib bo'lmayapti</t>
+  </si>
+  <si>
+    <t>Не возможно,заселить</t>
+  </si>
+  <si>
+    <t>Обратите внимание на корректность заполнения данных при регистрации. Также уточните у гостя относительно паспорта: регистрация возможна только с паспортом, с которым гость пересек границу.
+Если все данные указаны корректно, включая правильный паспорт, но гость иностранец не найден в базе, вам потребуется заполнить форму "Корректировка персоны". Этот модуль включает в себя заполнение формы, обязательное прикрепление фото главной страницы паспорта иностранца в формате JPG, а также страницы с отметкой КПП на границе, размер которого не должен превышать 500КБ. После отправки ваша заявка будет рассмотрена органами МВД/ОВИР. По получении уведомления о статусе вашего запроса, в случае одобрения, статус изменится на "Одобрено", и вы сможете зарегистрировать данного гостя.
+На протяжении рассмотрения запроса проблем с регистрацией у гостей и средств размещения не возникнет.
+Эти правила действуют только для иностранных гостей при регистрации в средствах размещения (за исключением UZB и лиц без гражданства).</t>
+  </si>
+  <si>
+    <t>registratsiya,bumayopti</t>
+  </si>
+  <si>
+    <t>жёлтого цвета</t>
+  </si>
+  <si>
+    <t>necchi kun,registratsiyasiz</t>
+  </si>
+  <si>
+    <t>mehmonlani kiritomayamiz</t>
+  </si>
+  <si>
+    <t>kirata olmayapmiz</t>
+  </si>
+  <si>
+    <t>допущена,ошибка,регистрации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В течение 12 часов после регистрации вы можете отредактировать некоторые данные гостя. Для этого выберите гостя и нажмите на кнопку редактировать (значок ручки), укажите корректную информацию и сохраните листок.
+Если вы физическое лицо, отправьте по телеграму @emehmon регистрационный номер гостя и подробнее укажите данные, которые нужно отредактировать или добавить.
+</t>
+  </si>
+  <si>
+    <t>Просим Вас сделать корректировку.</t>
+  </si>
+  <si>
+    <t>cadastre,to'ldirish</t>
+  </si>
+  <si>
+    <t>kadastrlar "mening kadastrlarim" bo'limidagi "kadastrlarni yangilash" tugmachasini bosgandan so'ng avtomatik ravishda tortib olinadi, agar oneid orqali tizimga kirgan foydalanuvchi o'z nomida kadastrlarga ega (ya'ni egasi) bo'lsa</t>
+  </si>
+  <si>
+    <t>parol esdan ciqqan</t>
+  </si>
+  <si>
+    <t>дней,не могу,прописать</t>
+  </si>
+  <si>
+    <t>физические лица могут регистрировать гостей максимум на 30 дней с момента прибытия в страну. Чтобы продлить или зарегистрировать на более долгий срок, вы должны обратиться в ОВИР.</t>
+  </si>
+  <si>
+    <t>максимальный срок регистрации,указывает</t>
+  </si>
+  <si>
+    <t>корректировка,Как долго</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schotga,qanday,o'tkaza olamiz </t>
+  </si>
+  <si>
+    <t>Информация о без регистрационном периоде:
+Россия - 15 дней
+Таджикистан - 10 дней
+Казахстан - 30 дней
+Азербайджан - 15 дней
+ОАЭ - 30 дней
+Другие страны - 3 дня
+Однако, средства размещения обязаны регистрировать гостей сразу по прибытию.
+В соответствии с постановлением Кабинета Министров Республики Узбекистан № 433 от 10 июля 2020 года «О мерах по созданию благоприятных условий для восстановления и развития туристической отрасли в Республике Узбекистан», в целях совершенствования системы мониторинга передвижения местных и иностранных граждан по территории Республики, разработки на основе полученной информации дальнейших планов и их эффективной реализации, в вышеуказанные процедуры были внесены соответствующие изменения.
+Теперь все лица, воспользовавшиеся услугами средств размещения, включая граждан Республики Узбекистан, иностранных граждан и лиц без гражданства, должны учитываться в гостиницах, лечебных учреждениях, санаториях, домах отдыха и других учреждениях на основании документов, подтверждающих личность, администрацией этих учреждений путем внесения в автоматизированную информационную систему «E-Mehmon».
+Регистрация ведется не в течение 12 часов, как раньше, а в момент прибытия, независимо от срока пребывания и периодичности прибытия.
+Руководителям гостиниц, лечебных учреждений, санаториев, домов отдыха и других организаций, оказывающих услуги по размещению, предлагается строго соблюдать данный порядок.</t>
+  </si>
+  <si>
+    <t>"Ro'yxatdan o'tmasdan yurish davri haqida ma'lumot:
+Rossiya - 15 kun
+Tojikiston - 10 kun
+Qozog'iston - 30 kun
+Ozarbayjon - 15 kun
+BAA - 30 kun
+Boshqa mamlakatlar - 3 kun
+Biroq, turar joy binolari mehmonlarni kelgandan so'ng darhol ro'yxatga olishlari kerak.
+O‘zbekiston Respublikasi Vazirlar Mahkamasining 2020-yil 10-iyuldagi “O‘zbekiston Respublikasida turizm sohasini tiklash va rivojlantirish uchun qulay shart-sharoitlar yaratish chora-tadbirlari to‘g‘risida”gi 433-son qaroriga muvofiq mahalliy va xorijiy fuqarolarning respublika hududi boʻylab harakatlanishini monitoring qilish tizimi, ishlanmalar asosida kelgusi rejalar va ularni samarali amalga oshirish yuzasidan olingan maʼlumotlardan kelib chiqib, yuqoridagi tartiblarga tegishli oʻzgartirishlar kiritildi.
+Endilikda turar joy muassasalari xizmatlaridan foydalangan barcha shaxslar, shu jumladan O‘zbekiston Respublikasi fuqarolari, chet el fuqarolari va fuqaroligi bo‘lmagan shaxslar mehmonxonalar, tibbiyot muassasalari, sanatoriylar, dam olish uylari va boshqa muassasalarda shaxsini tasdiqlovchi hujjatlar asosida mazkur muassasalar ma’muriyati “E-Mehmon” avtomatlashtirilgan axborot tizimiga kirish orqali ro‘yxatdan o‘tishlari shart.
+Ro'yxatdan o'tish avvalgidek 12 soat ichida emas, balki kelish vaqtida, qolish muddatidan qat'i nazar, amalga oshiriladi.
+Mehmonxonalar, tibbiyot muassasalari, sanatoriylar, dam olish uylari va joylashtirish xizmatlarini ko‘rsatuvchi boshqa tashkilotlar rahbarlaridan ushbu tartibga qat’iy rioya etishlari so‘raladi”.</t>
+  </si>
+  <si>
+    <t>Siz bank orqali yoki Payme/Click orqali toʻlashingiz mumkin. Ilovaga kirib “Оплата на расчетный счет”  “to‘lov turi”ni tanlang, ma’lumotlarni to‘ldiring, to‘lov maqsadi maydonida IIN raqami yoki shartnoma raqamini ko‘rsatishni unutmang.
+📋 E-MEHMON MCHJ
+Yuridik manzili: Toshkent sh. Oybek, 18
+Pochta manzili: Toshkent sh. Oybek, 18
+Telefon: +99871 200-71-00, +99895 144-72-00
+Bank: AIKB “Ipak yo‘li” Hisob raqami 2020 8000 8055 4123 0001, Mirobod filiali
+MFO 01101, INN: 309666145, OKED: 62010
+E-mail: info@kabus.uz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+📋 E-MEHMON MCHJ
+Yuridik manzili: Toshkent sh. Oybek, 18
+Pochta manzili: Toshkent sh. Oybek, 18
+Telefon: +99871 200-71-00, +99895 144-72-00
+Bank: AIKB “Ipak yo‘li” Hisob raqami 2020 8000 8055 4123 0001, Mirobod filiali
+MFO 01101, INN: 309666145, OKED: 62010
+E-mail: info@kabus.uz</t>
+  </si>
+  <si>
+    <t>тип визита,Что делать</t>
+  </si>
+  <si>
+    <t>Тип визита уточняете у самого гостя. Если нет подходящего укажите "другое".</t>
+  </si>
+  <si>
+    <t>что делать,тип визы</t>
+  </si>
+  <si>
+    <t>регистрацию,месяц,продлить</t>
+  </si>
+  <si>
+    <t>Физ лица могут зарегистрировать своих гостей максимум до 30 дней с момента прибытия в страну далее чтобы продлить нужно обратится в ОВиР</t>
+  </si>
+  <si>
+    <t>регистрация,килиб,бумебди</t>
+  </si>
+  <si>
+    <t>BOLANI,QANDE,REGIZTRATSIYA,QILINADII</t>
+  </si>
+  <si>
+    <t>16,тулмаган</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nech kun,bez registratsiya</t>
+  </si>
+  <si>
+    <t>tulov qilodik,ishlamayapti</t>
+  </si>
+  <si>
+    <t>registratsya qlolmayapman</t>
+  </si>
+  <si>
+    <t>bez registradsiya,nechi kun</t>
+  </si>
+  <si>
+    <t>OPLATA QILOBMIZ,DEPOZIT,MINUSDA</t>
+  </si>
+  <si>
+    <t>reg,bo'mayapti</t>
+  </si>
+  <si>
+    <t>registratsiya,qb bumiyabdi</t>
+  </si>
+  <si>
+    <t>pul o’tkazgandik,minusda</t>
+  </si>
+  <si>
+    <t>bez registratsiya,nechkun</t>
+  </si>
+  <si>
+    <t>qizl bop trupdi</t>
+  </si>
+  <si>
+    <t>Voyaga yetmagan,registratsiya</t>
+  </si>
+  <si>
+    <t>Registirsiya,quyilmayapdi</t>
+  </si>
+  <si>
+    <t>qizil palasa</t>
+  </si>
+  <si>
+    <t>kirita olmayapman</t>
+  </si>
+  <si>
+    <t>malumotlarni kirgazsa,chiqarmayapdi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> akkautimga,kira,olmayapman</t>
+  </si>
+  <si>
+    <t>emehmonni,rekvizitlari</t>
+  </si>
+  <si>
+    <t>qizil boʻlib turibdi</t>
+  </si>
+  <si>
+    <t>reg qibomayapti</t>
+  </si>
+  <si>
+    <t>To'lov qigandim,ko'rinmayapti</t>
+  </si>
+  <si>
+    <t>reg ,qilb,bomayapti</t>
+  </si>
+  <si>
+    <t>bez registratsiya,nechi,kun</t>
+  </si>
+  <si>
+    <t>xato,summa,urib qoydik,togirlasa</t>
+  </si>
+  <si>
+    <t>Мехмонни танлаб "Статус оплаты" тугмасини босасиз, Керакли суммани курсатиб "Установить" тугмасини босасиз</t>
+  </si>
+  <si>
+    <t>qanaqb,tolidi,qarz</t>
+  </si>
+  <si>
+    <t>KIRGIZA OLMAYAPMAN</t>
+  </si>
+  <si>
+    <t>fuqarolari,nechi kun,yurishi mumkin</t>
+  </si>
+  <si>
+    <t>reg,bolmayapti</t>
+  </si>
+  <si>
+    <t>bez ragistratsiya,nechi kun</t>
+  </si>
+  <si>
+    <t>mehmonlani kirgizmochi bosek,error,bervoti</t>
+  </si>
+  <si>
+    <t>saytga,kirib,bo'lmayapti</t>
+  </si>
+  <si>
+    <t>nechi kun,registratsiyasiz</t>
+  </si>
+  <si>
+    <t>reg,qilib,bolmayapti</t>
+  </si>
+  <si>
+    <t>qancha vaqt,regatratisiyasiz</t>
+  </si>
+  <si>
+    <t>Kirita bo'lmayopti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vizasi so'ralyapti,reg,bo'lmayapti</t>
+  </si>
+  <si>
+    <t>“Agar mehmonning vizasi boʻlmasa, viza bilan bogʻliq barcha maydonlarni oʻtkazib yuboring (Tashrif turi va mehmon turi viza bilan bogʻliq emas, ularni viza tafsilotlari bilan aralashtirib yubormang).
+Har doim joriy viza ma'lumotlarini tekshiring, chunki tizim faqat OVIR tomonidan taqdim etilgan ma'lumotlardan foydalanadi va to'ldiradi. Agar mehmon yangi vizaga ega bo'lsa, iltimos, eski viza ma'lumotlarini o'chiring va joriy ma'lumotlarni to'ldiring.
+"</t>
+  </si>
+  <si>
+    <t>malumotlari,ciqmayapti,mehmonni</t>
+  </si>
+  <si>
+    <t>vizasi,tugagan</t>
+  </si>
+  <si>
+    <t>Cilik,tulov,boʻladimi</t>
+  </si>
+  <si>
+    <t>malumotlarini,kiritishda,muammo,bo'lyapti</t>
+  </si>
+  <si>
+    <t>qizil,mehmon</t>
+  </si>
+  <si>
+    <t>kirita olmayapmiz</t>
+  </si>
+  <si>
+    <t>malumotlari,chiqmayapti</t>
+  </si>
+  <si>
+    <t>necha kun,bez registratsiya</t>
+  </si>
+  <si>
+    <t>emehmonda,Quyon</t>
+  </si>
+  <si>
+    <t>Assalomu alaykum, “Гость заяц” mehmoningiz avvalgi yashagan mehmonxonadan check out bo'lmaganida chiqadi, siz bildirishnomada ko'rsatilgan raqamga qo'ng'iroq qilishingiz va ularni xabardor qilishingiz mumkin.</t>
+  </si>
+  <si>
+    <t>nechi kun,mumkin,bez registratisya</t>
+  </si>
+  <si>
+    <t>Tursborni,korish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система оркали сиз танлаган ойингиз учун канча тур. йигим хисобланганини куришингиз мумкин, лекин канча карзингиз колган йоки канча пения ёзилганлиги тугрисида маълумотни туризм оркали олишингиз мумкин </t>
+  </si>
+  <si>
+    <t>счетга,ташладик,блокда</t>
+  </si>
+  <si>
+    <t>абонент туловини,тулаган эдик</t>
+  </si>
+  <si>
+    <t>Канча тур йигим хисобланганини куриш учун Turyig'im тугмасини босасиз ва Hisobot булимига утасиз, тур йигим тури ва керак булган ойни танлаб кидирув тугмасини босасиз</t>
+  </si>
+  <si>
+    <t>виза,қанақа тўлдирилади</t>
+  </si>
+  <si>
+    <t>тех под,номерини</t>
+  </si>
+  <si>
+    <t>(+99871) 200-71-00
+(+99871) 202-71-00</t>
+  </si>
+  <si>
+    <t>фукаролари,неча кун регистрациясиз</t>
+  </si>
+  <si>
+    <t>18,кирмаган,тур сбор,олинадими</t>
+  </si>
+  <si>
+    <t>16 yoshgacha bo'lganlar uchun tur yeg'im olinmaydi, chunki siz alohida ro'yxatga qo'ymaysiz,  hamrohlik qiluvchi shaxsga biriktirasiz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">туловни,ишламаяпти </t>
+  </si>
+  <si>
+    <t>ХИСОБИНГИЗ ФАОЛ ЭМАС</t>
+  </si>
+  <si>
+    <t>Корректировка деяпти</t>
+  </si>
+  <si>
+    <t>абонент,тулаган эдик,куринмапди</t>
+  </si>
+  <si>
+    <t>ойлик тулов,килгандик,утмаяпти</t>
+  </si>
+  <si>
+    <t>тулов,килгандик,ишламаяпти</t>
+  </si>
+  <si>
+    <t>балогат,етмаганлар,кандай,киритилади</t>
+  </si>
+  <si>
+    <t>киргиза,олмаяпман</t>
+  </si>
+  <si>
+    <t>мехмонни,кирита,олмаяпман</t>
+  </si>
+  <si>
+    <t>ваш аккаунт не активен</t>
+  </si>
+  <si>
+    <t>emehmon.uz,кулланма</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qo'llanma olish uchun bizga Telegram orqali @emehmon manziliga yozing. </t>
+  </si>
+  <si>
+    <t>отзивни,кандай,узгартирса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">izohni o'chirish uchun bizga Telegram orqali @emehmon manziliga yozing. </t>
+  </si>
+  <si>
+    <t>отзивни,кандай,узгартирса,булади</t>
+  </si>
+  <si>
+    <t>курингани йўқ,Тўловимиз</t>
+  </si>
+  <si>
+    <t>пул,ташаганимга,ишламотти</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пул,ташлагндик,карз,курсатяпти </t>
+  </si>
+  <si>
+    <t>нечи кун,без регистратсия</t>
+  </si>
+  <si>
+    <t>регистрация,килиб,булмаяпти</t>
+  </si>
+  <si>
+    <t>толов,карздорлик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нечи ёшдан,рег,килинади </t>
+  </si>
+  <si>
+    <t>туловини,нечинчи,санагача,тулаш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tizim 5-sanagacha o'chmaydi, qarzdorlik bo'lsa har oyning 5-sanagacha to'lashingiz kerak
+</t>
+  </si>
+  <si>
+    <t>гость заяц</t>
+  </si>
+  <si>
+    <t>"гость заяц " выходит тогда когда вашему гостю не сделали check out при выселении с предыдущей  гостиницы, вы можете позвонить по указанному номеру в уведомлении и предупредить их</t>
+  </si>
+  <si>
+    <t>фукароси,нечи,мумкин</t>
+  </si>
+  <si>
+    <t>востонавит,Логин</t>
+  </si>
+  <si>
+    <t>карздор,Толов</t>
+  </si>
+  <si>
+    <t>туловни,амалга оширдим</t>
+  </si>
+  <si>
+    <t>На Вашем имени не зарегистрованы кадастры</t>
+  </si>
+  <si>
+    <t>не зарегистрованы кадастры</t>
+  </si>
+  <si>
+    <t>Горит,красный</t>
+  </si>
+  <si>
+    <t>что писать,номер визы</t>
+  </si>
+  <si>
+    <t>Данный гость по Вашему запросу</t>
+  </si>
+  <si>
+    <t>No results found,кадастра</t>
+  </si>
+  <si>
+    <t>как зарегистрировать,ООН</t>
+  </si>
+  <si>
+    <t>Здравствуйте, система не принимает паспорта ЕС и ООН. Так как данный тип документа является для перемещения внутри стран EC. Поэтому включения список стран «ЕС» является не целесообразным. Тоже самое является и для ООН паспорта, то есть гражданин при прохождении границы обязан предоставить свой гражданский паспорт. Данный тип документа является привилегией для без визового въезда страну, другой юридической силы он не имеет. Регистрируйте по гражданским паспортам.</t>
+  </si>
+  <si>
+    <t>Красноя строка</t>
+  </si>
+  <si>
+    <t>желтом цвете</t>
+  </si>
+  <si>
+    <t>Произвели оплату,не поступила</t>
+  </si>
+  <si>
+    <t>Отправьте фотографию квитанции об оплате на лс  @emehmon. Мы проверим и внесем ваши деньги в ближайшее время.</t>
+  </si>
+  <si>
+    <t>Система сообщает о долге</t>
+  </si>
+  <si>
+    <t>нужна ли регистрация,граждан</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> баланс,минус,как,оплатить</t>
+  </si>
+  <si>
+    <t>гражданам,течении,времени,надо,зарегестрироваться</t>
+  </si>
+  <si>
+    <t>корректировку,ОТКАЗАНО</t>
+  </si>
+  <si>
+    <t>Нажмите два раза на нужный отправленный запрос и обратите внимание на поле Комментария, там будет подробно написано причина отказа или возврата на доработку.</t>
+  </si>
+  <si>
+    <t>просит,корректировку</t>
+  </si>
+  <si>
+    <t>реквизиты для оплаты</t>
+  </si>
+  <si>
+    <t>не отображается,кадастр</t>
+  </si>
+  <si>
+    <t>не получается,номер кадастра</t>
+  </si>
+  <si>
+    <t>оплачивала,Абонентскую,не могу</t>
+  </si>
+  <si>
+    <t>Как,зарегистрировать,иностранцев,домах</t>
+  </si>
+  <si>
+    <t>Здравствуйте, владелец квартиры может зарегистрировать гостей как физ лицо через сайт reg.emehmon.uz  до дней с момента прибытия гостей в страну</t>
+  </si>
+  <si>
+    <t>Не получается,заселить,гостей</t>
+  </si>
+  <si>
+    <t>регистрируют,детей,одному,прописывать</t>
+  </si>
+  <si>
+    <t>Достаточно прикрепить к одному сопровождающему лицу.</t>
+  </si>
+  <si>
+    <t>оплатил,деньги,не поступили</t>
+  </si>
+  <si>
+    <t>не,выходит,номер,кадастра</t>
+  </si>
+  <si>
+    <t>как получить кадастры</t>
+  </si>
+  <si>
+    <t>как,получить,кадастры</t>
+  </si>
+  <si>
+    <t>зарегистрировать,не нашло в базе</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> сколько,оплачивать,систему</t>
+  </si>
+  <si>
+    <t>как,оплатить,онлайн,баланс</t>
+  </si>
+  <si>
+    <t>INTERNAL SERVER ERROR,корректировки</t>
+  </si>
+  <si>
+    <t>Перезайдите в кабинет и попробуйте отправить заново, обратите внимание на формат и размер изображения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> гостя запрещена,запросу не найден!</t>
+  </si>
+  <si>
+    <t>не появляется,кадастр</t>
+  </si>
+  <si>
+    <t>емехмон,использованию,видеоинструкция</t>
+  </si>
+  <si>
+    <t>Напишите нам по телеграму @emehmon, отрпавим инструкцию</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> На какой сайт должно войти ФИЗИЧЕСКОЕ лицо</t>
+  </si>
+  <si>
+    <t>reg.emehmon.uz</t>
+  </si>
+  <si>
+    <t>Укажите Электронную копию въезда иностранца!</t>
+  </si>
+  <si>
+    <t>Вы должны загрузить фото главной страницы паспорта и последнюю страницу, где поставили печать КПП.</t>
+  </si>
+  <si>
+    <t>красная полоса</t>
+  </si>
+  <si>
+    <t>гость по Вашему запросу не найден!</t>
+  </si>
+  <si>
+    <t>исправить,как,ошибку,данные</t>
+  </si>
+  <si>
+    <t>Напишите нам по телеграму @emehmon</t>
+  </si>
+  <si>
+    <t>кадастр не выходит</t>
+  </si>
+  <si>
+    <t>вчера оплатили,балансе 0</t>
+  </si>
+  <si>
+    <t>нужно ли,регистрацию,ребенку</t>
+  </si>
+  <si>
+    <t>Здравствуйте, до 16 лет прикрепляете к сопровождающим лицам после 16 лет нужно регистрировать отдельно и тур сбор будет начисляться</t>
+  </si>
+  <si>
+    <t>почему,ежемесечная,оплата,не</t>
+  </si>
+  <si>
+    <t>без регистрация,сколка</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> удалить,гость,emehmon</t>
+  </si>
+  <si>
+    <t>Вы можете сделать Check out гостю. Для этого выберите гостя и нажмите на кнопку "check out" (значок лупы).</t>
+  </si>
+  <si>
+    <t>кирита олмаяпмиз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">продлить,регистрацию,как </t>
+  </si>
+  <si>
+    <t>Если вы физическое лицо, то по окончании срока первой регистрации вы должны повторно зарегистрировать(общий срок регистрации не должен превышать 30 дней с момента прибытия в страну).</t>
+  </si>
+  <si>
+    <t>выделяется,красным</t>
+  </si>
+  <si>
+    <t>мы оплатили,не прошел,платеж</t>
+  </si>
+  <si>
+    <t>Не,могу,зайти,кабинет</t>
+  </si>
+  <si>
+    <t>пункт с визой,безвизовый</t>
+  </si>
+  <si>
+    <t>гость не найден</t>
+  </si>
+  <si>
+    <t>как,восстановить,пароль</t>
+  </si>
+  <si>
+    <t>изменить,данных,гостя</t>
+  </si>
+  <si>
+    <t>выберите гостя и нажмите на кнопку редактировать, в течении 12 часов после регистрации вы можете отредактировать некоторые данные
+Если вы физ лицо для редактирования листка напишите нам по телеграму @emehmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> СМС,не приходит,для оплаты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Попробуйте через другую карту или попробуйте попозже </t>
+  </si>
+  <si>
+    <t>пул тулаган,очилмади</t>
+  </si>
+  <si>
+    <t>регистрация,булмаяпти</t>
+  </si>
+  <si>
+    <t>Регистрация,килолмапмиз</t>
+  </si>
+  <si>
+    <t>визасиз,кандай,регистрация,бўлди</t>
+  </si>
+  <si>
+    <t>кадастр чикмаябди</t>
+  </si>
+  <si>
+    <t>"Mening kadastrlarim" bo'limidagi "Kadastrlarni olish" tugmasini bosgandan so'ng kadastrlar avtomatik ravishda ochiladi, agar OneID orqali tizimga kirgan foydalanuvchi o'z nomida kadastrga ega (ya'ni uy egasi)bo'lsa .</t>
+  </si>
+  <si>
+    <t>пул утказгандим,ишлагани йук</t>
+  </si>
+  <si>
+    <t>кайси реквизитга,утидими</t>
+  </si>
+  <si>
+    <t>тип визы,нима йозиш,керак</t>
+  </si>
+  <si>
+    <t>базада чикмаярти,Узбекистон</t>
+  </si>
+  <si>
+    <t>мехмонни,руйхатдан,уткизолмаяпман</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,14 +1460,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -497,21 +1481,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -792,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B467"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="B468" sqref="B468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +1793,7 @@
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -812,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -820,7 +1809,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -828,7 +1817,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -836,7 +1825,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -844,7 +1833,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,7 +1841,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -860,7 +1849,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -868,7 +1857,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -876,7 +1865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -884,7 +1873,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -892,7 +1881,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -900,7 +1889,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -908,7 +1897,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -916,7 +1905,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -924,7 +1913,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -932,7 +1921,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -940,7 +1929,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -948,7 +1937,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -956,7 +1945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -964,7 +1953,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -972,7 +1961,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -980,7 +1969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -988,7 +1977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -996,7 +1985,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1004,7 +1993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1012,7 +2001,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1020,7 +2009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1028,7 +2017,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1036,7 +2025,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1044,7 +2033,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1052,7 +2041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1060,7 +2049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1068,7 +2057,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1076,7 +2065,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1084,7 +2073,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1092,7 +2081,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1100,7 +2089,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -1108,7 +2097,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1116,7 +2105,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -1124,7 +2113,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1132,7 +2121,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1140,7 +2129,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1148,7 +2137,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1156,7 +2145,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1164,7 +2153,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1172,7 +2161,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1180,7 +2169,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -1188,7 +2177,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -1196,7 +2185,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1204,7 +2193,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -1212,7 +2201,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -1220,7 +2209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -1228,7 +2217,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -1236,7 +2225,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -1244,7 +2233,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -1252,7 +2241,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -1260,7 +2249,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -1268,7 +2257,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -1276,7 +2265,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -1284,378 +2273,3263 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="B64" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="3" t="s">
+    <row r="70" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="B78" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B195" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="B203" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B250" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    </row>
+    <row r="251" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B414" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    </row>
+    <row r="415" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B420" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B422" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B426" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B428" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B429" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B435" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B442" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B443" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B445" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B451" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B453" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B95" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    </row>
+    <row r="454" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B454" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>110</v>
+    </row>
+    <row r="455" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B460" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B467" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dosto\Desktop\Работа\Emehmon\бот\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8926CAC6-AECF-4F66-A644-70974AC551D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AB99D5-4CF5-415F-AD46-86B8C27D6939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2727,6 +2727,189 @@
     <t>кадастры автоматоматически добавляются после нажатие на кнопку "Получить кадастры" в разделе "Мои кадастры" при условии вошедший в систему пользователь через OneID имеет на своем имени кадастры (т.е. является владельцем). Если кадастры не появляются обратитесь в отдел Кадастра 71 202-01-23</t>
   </si>
   <si>
+    <t>Какие страны имеют 30-дневный безрегистрационный период?</t>
+  </si>
+  <si>
+    <t>Сколько дней могут находиться граждане Казахстана без регистрации в Узбекистане?</t>
+  </si>
+  <si>
+    <t>Каковы сроки пребывания без регистрации для граждан Таджикистана?</t>
+  </si>
+  <si>
+    <t>Какие изменения были внесены в правила учета гостей в Узбекистане в 2020 году?</t>
+  </si>
+  <si>
+    <t>Должны ли гостиницы регистрировать граждан Узбекистана?</t>
+  </si>
+  <si>
+    <t>В каких учреждениях проводится регистрация гостей в системе E-Mehmon?</t>
+  </si>
+  <si>
+    <t>Нужно ли регистрировать гостей, если их пребывание менее 3 дней?</t>
+  </si>
+  <si>
+    <t>Как уточнить актуальные правила безрегистрационного пребывания?</t>
+  </si>
+  <si>
+    <t>Каков процесс учета лиц без гражданства в системе E-Mehmon?</t>
+  </si>
+  <si>
+    <t>Влияет ли периодичность прибытия на необходимость регистрации?</t>
+  </si>
+  <si>
+    <t>оплата,Payme</t>
+  </si>
+  <si>
+    <t>расчетный счет,оплата</t>
+  </si>
+  <si>
+    <t>реквизиты,оплата</t>
+  </si>
+  <si>
+    <t>договор,платеж</t>
+  </si>
+  <si>
+    <t>оплата,отображение</t>
+  </si>
+  <si>
+    <t>платеж,подтверждение</t>
+  </si>
+  <si>
+    <t>статус,оплата</t>
+  </si>
+  <si>
+    <t>выходные,оплата</t>
+  </si>
+  <si>
+    <t>данные,платеж</t>
+  </si>
+  <si>
+    <t>комиссия,оплата</t>
+  </si>
+  <si>
+    <t>Вы можете оплатить через банк или с помощью Payme/Click. Выберите ""тип оплаты"" как ""Оплата на расчетный счёт"" в приложении, заполните реквизитные данные, обязательно укажите номер ИНН или номер договора в поле назначения платежа.</t>
+  </si>
+  <si>
+    <t>не принимает,гостя</t>
+  </si>
+  <si>
+    <t>не принимает,корректировки</t>
+  </si>
+  <si>
+    <t>гостя,корректировки</t>
+  </si>
+  <si>
+    <t>стал,жолтым</t>
+  </si>
+  <si>
+    <t>стал,жёлтым</t>
+  </si>
+  <si>
+    <t>стал,желтым</t>
+  </si>
+  <si>
+    <t>стал,красным</t>
+  </si>
+  <si>
+    <t>не может,найти гостя</t>
+  </si>
+  <si>
+    <t>не получается,регистрацию</t>
+  </si>
+  <si>
+    <t>оплачивали,не работает</t>
+  </si>
+  <si>
+    <t>перевели,не внесли</t>
+  </si>
+  <si>
+    <t>перевели,не работает</t>
+  </si>
+  <si>
+    <t>перевели,деньги,не включили</t>
+  </si>
+  <si>
+    <t>перевели,не включили</t>
+  </si>
+  <si>
+    <t>произвели,оплату,не включили</t>
+  </si>
+  <si>
+    <t>когда,включат,оплатили</t>
+  </si>
+  <si>
+    <t>не работает,сделали,оплату</t>
+  </si>
+  <si>
+    <t>произвели оплату,не работает</t>
+  </si>
+  <si>
+    <t>сделали оплату,не включили</t>
+  </si>
+  <si>
+    <t>оплачивали,не подключили</t>
+  </si>
+  <si>
+    <t>оплачивали,не внесли</t>
+  </si>
+  <si>
+    <t>оплатили,не подключили</t>
+  </si>
+  <si>
+    <t>абонентский,минус,туланганди</t>
+  </si>
+  <si>
+    <t>регистрация,не проходит</t>
+  </si>
+  <si>
+    <t>depazit,minusda</t>
+  </si>
+  <si>
+    <t>payme,boladimi</t>
+  </si>
+  <si>
+    <t>to'lagandim,tushmabti</t>
+  </si>
+  <si>
+    <t>toladim,yonmadi</t>
+  </si>
+  <si>
+    <t>to'ladim,yonmadimi</t>
+  </si>
+  <si>
+    <t>оплатил,наработает</t>
+  </si>
+  <si>
+    <t>to'ladim,yonmadi</t>
+  </si>
+  <si>
+    <t>данные,не показывает</t>
+  </si>
+  <si>
+    <t>tolov,yonmayabti</t>
+  </si>
+  <si>
+    <t>toladim,ochmayabti</t>
+  </si>
+  <si>
+    <t>to'lagandim,qilomayaman</t>
+  </si>
+  <si>
+    <t>qilomayaman,reg</t>
+  </si>
+  <si>
+    <t>е мехмон,оплатаси</t>
+  </si>
+  <si>
+    <t>оплата,е мехмон,сколька</t>
+  </si>
+  <si>
+    <t>click,bo'ladimi</t>
+  </si>
+  <si>
+    <t>Qizil,nimadan</t>
+  </si>
+  <si>
     <t>"Информация о без регистрационном периоде:
 Россия - 15 дней
 Таджикистан - 10 дней
@@ -2734,13 +2917,12 @@
 Азербайджан - 15 дней
 ОАЭ - 30 дней
 Другие страны - 3 дня
-Информация от 01.12.2024
-Эти данные соответствуют актуальной информации о безрегистрационных периодах пребывания в Узбекистане. Однако законодательство и правила могут меняться, поэтому рекомендуется перед поездкой уточнять актуальные требования у официальных источников, таких как Министерство иностранных дел Узбекистана или консульские учреждения.
 Однако, средства размещения обязаны регистрировать гостей сразу по прибытию.
 В соответствии с постановлением Кабинета Министров Республики Узбекистан № 433 от 10 июля 2020 года «О мерах по созданию благоприятных условий для восстановления и развития туристической отрасли в Республике Узбекистан», в целях совершенствования системы мониторинга передвижения местных и иностранных граждан по территории Республики, разработки на основе полученной информации дальнейших планов и их эффективной реализации, в вышеуказанные процедуры были внесены соответствующие изменения.
 Теперь все лица, воспользовавшиеся услугами средств размещения, включая граждан Республики Узбекистан, иностранных граждан и лиц без гражданства, должны учитываться в гостиницах, лечебных учреждениях, санаториях, домах отдыха и других учреждениях на основании документов, подтверждающих личность, администрацией этих учреждений путем внесения в автоматизированную информационную систему «E-Mehmon».
 Регистрация ведется не в течение 12 часов, как раньше, а в момент прибытия, независимо от срока пребывания и периодичности прибытия.
-Руководителям гостиниц, лечебных учреждений, санаториев, домов отдыха и других организаций, оказывающих услуги по размещению, предлагается строго соблюдать данный порядок."</t>
+Руководителям гостиниц, лечебных учреждений, санаториев, домов отдыха и других организаций, оказывающих услуги по размещению, предлагается строго соблюдать данный порядок."
+Данные приведены по состоянию на 24 декабря 2024 года</t>
   </si>
   <si>
     <t>Ro'yxatdan o'tmasdan yurish davri haqida ma'lumot:
@@ -2750,196 +2932,12 @@
 Ozarbayjon - 15 kun
 BAA - 30 kun
 Boshqa mamlakatlar - 3 kun
-Ma'lumotlar 01.12.2024 dan
-Ushbu ma'lumotlar O‘zbekistonda ro‘yxatdan o‘tmasdan turish muddatlari bo‘yicha amaldagi ma'lumotlarga mos keladi. Biroq, qonunchilik va qoidalar o‘zgarishi mumkin, shuning uchun O‘zbekiston Tashqi ishlar vazirligi yoki konsullik muassasalari kabi rasmiy manbalardan dolzarb talablarni aniqlashtirish tavsiya etiladi.
 Biroq, turar joy binolari mehmonlarni kelgandan so'ng darhol ro'yxatga olishlari kerak.
 O‘zbekiston Respublikasi Vazirlar Mahkamasining 2020-yil 10-iyuldagi “O‘zbekiston Respublikasida turizm sohasini tiklash va rivojlantirish uchun qulay shart-sharoitlar yaratish chora-tadbirlari to‘g‘risida”gi 433-son qaroriga muvofiq mahalliy va xorijiy fuqarolarning respublika hududi boʻylab harakatlanishini monitoring qilish tizimi, ishlanmalar asosida kelgusi rejalar va ularni samarali amalga oshirish yuzasidan olingan maʼlumotlardan kelib chiqib, yuqoridagi tartiblarga tegishli oʻzgartirishlar kiritildi.
 Endilikda turar joy muassasalari xizmatlaridan foydalangan barcha shaxslar, shu jumladan O‘zbekiston Respublikasi fuqarolari, chet el fuqarolari va fuqaroligi bo‘lmagan shaxslar mehmonxonalar, tibbiyot muassasalari, sanatoriylar, dam olish uylari va boshqa muassasalarda shaxsini tasdiqlovchi hujjatlar asosida mazkur muassasalar ma’muriyati “E-Mehmon” avtomatlashtirilgan axborot tizimiga kirish orqali ro‘yxatdan o‘tishlari shart.
 Ro'yxatdan o'tish avvalgidek 12 soat ichida emas, balki kelish vaqtida, qolish muddatidan qat'i nazar, amalga oshiriladi.
-Mehmonxonalar, tibbiyot muassasalari, sanatoriylar, dam olish uylari va joylashtirish xizmatlarini ko‘rsatuvchi boshqa tashkilotlar rahbarlaridan ushbu tartibga qat’iy rioya etishlari so‘raladi”."</t>
-  </si>
-  <si>
-    <t>Какие страны имеют 30-дневный безрегистрационный период?</t>
-  </si>
-  <si>
-    <t>Сколько дней могут находиться граждане Казахстана без регистрации в Узбекистане?</t>
-  </si>
-  <si>
-    <t>Каковы сроки пребывания без регистрации для граждан Таджикистана?</t>
-  </si>
-  <si>
-    <t>Какие изменения были внесены в правила учета гостей в Узбекистане в 2020 году?</t>
-  </si>
-  <si>
-    <t>Должны ли гостиницы регистрировать граждан Узбекистана?</t>
-  </si>
-  <si>
-    <t>В каких учреждениях проводится регистрация гостей в системе E-Mehmon?</t>
-  </si>
-  <si>
-    <t>Нужно ли регистрировать гостей, если их пребывание менее 3 дней?</t>
-  </si>
-  <si>
-    <t>Как уточнить актуальные правила безрегистрационного пребывания?</t>
-  </si>
-  <si>
-    <t>Каков процесс учета лиц без гражданства в системе E-Mehmon?</t>
-  </si>
-  <si>
-    <t>Влияет ли периодичность прибытия на необходимость регистрации?</t>
-  </si>
-  <si>
-    <t>оплата,Payme</t>
-  </si>
-  <si>
-    <t>расчетный счет,оплата</t>
-  </si>
-  <si>
-    <t>реквизиты,оплата</t>
-  </si>
-  <si>
-    <t>договор,платеж</t>
-  </si>
-  <si>
-    <t>оплата,отображение</t>
-  </si>
-  <si>
-    <t>платеж,подтверждение</t>
-  </si>
-  <si>
-    <t>статус,оплата</t>
-  </si>
-  <si>
-    <t>выходные,оплата</t>
-  </si>
-  <si>
-    <t>данные,платеж</t>
-  </si>
-  <si>
-    <t>комиссия,оплата</t>
-  </si>
-  <si>
-    <t>Вы можете оплатить через банк или с помощью Payme/Click. Выберите ""тип оплаты"" как ""Оплата на расчетный счёт"" в приложении, заполните реквизитные данные, обязательно укажите номер ИНН или номер договора в поле назначения платежа.</t>
-  </si>
-  <si>
-    <t>не принимает,гостя</t>
-  </si>
-  <si>
-    <t>не принимает,корректировки</t>
-  </si>
-  <si>
-    <t>гостя,корректировки</t>
-  </si>
-  <si>
-    <t>стал,жолтым</t>
-  </si>
-  <si>
-    <t>стал,жёлтым</t>
-  </si>
-  <si>
-    <t>стал,желтым</t>
-  </si>
-  <si>
-    <t>стал,красным</t>
-  </si>
-  <si>
-    <t>не может,найти гостя</t>
-  </si>
-  <si>
-    <t>не получается,регистрацию</t>
-  </si>
-  <si>
-    <t>оплачивали,не работает</t>
-  </si>
-  <si>
-    <t>перевели,не внесли</t>
-  </si>
-  <si>
-    <t>перевели,не работает</t>
-  </si>
-  <si>
-    <t>перевели,деньги,не включили</t>
-  </si>
-  <si>
-    <t>перевели,не включили</t>
-  </si>
-  <si>
-    <t>произвели,оплату,не включили</t>
-  </si>
-  <si>
-    <t>когда,включат,оплатили</t>
-  </si>
-  <si>
-    <t>не работает,сделали,оплату</t>
-  </si>
-  <si>
-    <t>произвели оплату,не работает</t>
-  </si>
-  <si>
-    <t>сделали оплату,не включили</t>
-  </si>
-  <si>
-    <t>оплачивали,не подключили</t>
-  </si>
-  <si>
-    <t>оплачивали,не внесли</t>
-  </si>
-  <si>
-    <t>оплатили,не подключили</t>
-  </si>
-  <si>
-    <t>абонентский,минус,туланганди</t>
-  </si>
-  <si>
-    <t>регистрация,не проходит</t>
-  </si>
-  <si>
-    <t>depazit,minusda</t>
-  </si>
-  <si>
-    <t>payme,boladimi</t>
-  </si>
-  <si>
-    <t>to'lagandim,tushmabti</t>
-  </si>
-  <si>
-    <t>toladim,yonmadi</t>
-  </si>
-  <si>
-    <t>to'ladim,yonmadimi</t>
-  </si>
-  <si>
-    <t>оплатил,наработает</t>
-  </si>
-  <si>
-    <t>to'ladim,yonmadi</t>
-  </si>
-  <si>
-    <t>данные,не показывает</t>
-  </si>
-  <si>
-    <t>tolov,yonmayabti</t>
-  </si>
-  <si>
-    <t>toladim,ochmayabti</t>
-  </si>
-  <si>
-    <t>to'lagandim,qilomayaman</t>
-  </si>
-  <si>
-    <t>qilomayaman,reg</t>
-  </si>
-  <si>
-    <t>е мехмон,оплатаси</t>
-  </si>
-  <si>
-    <t>оплата,е мехмон,сколька</t>
-  </si>
-  <si>
-    <t>click,bo'ladimi</t>
-  </si>
-  <si>
-    <t>Qizil,nimadan</t>
+Mehmonxonalar, tibbiyot muassasalari, sanatoriylar, dam olish uylari va joylashtirish xizmatlarini ko‘rsatuvchi boshqa tashkilotlar rahbarlaridan ushbu tartibga qat’iy rioya etishlari so‘raladi”."
+Ma’lumotlar 2024-yil 24-dekabr holatiga keltirilgan</t>
   </si>
 </sst>
 </file>
@@ -3332,8 +3330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A831" workbookViewId="0">
-      <selection activeCell="A838" sqref="A838"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3923,7 +3921,7 @@
         <v>77</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3939,7 +3937,7 @@
         <v>80</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3947,7 +3945,7 @@
         <v>81</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3955,7 +3953,7 @@
         <v>82</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3963,7 +3961,7 @@
         <v>83</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3987,7 +3985,7 @@
         <v>87</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4027,7 +4025,7 @@
         <v>95</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4035,7 +4033,7 @@
         <v>96</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4147,7 +4145,7 @@
         <v>114</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4195,7 +4193,7 @@
         <v>121</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4203,7 +4201,7 @@
         <v>122</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4219,7 +4217,7 @@
         <v>124</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4251,7 +4249,7 @@
         <v>129</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4291,7 +4289,7 @@
         <v>136</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4307,7 +4305,7 @@
         <v>138</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4347,7 +4345,7 @@
         <v>144</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4363,7 +4361,7 @@
         <v>146</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4371,7 +4369,7 @@
         <v>147</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4403,7 +4401,7 @@
         <v>154</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4427,7 +4425,7 @@
         <v>159</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4467,7 +4465,7 @@
         <v>165</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4499,7 +4497,7 @@
         <v>169</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4507,7 +4505,7 @@
         <v>170</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4515,7 +4513,7 @@
         <v>171</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4683,7 +4681,7 @@
         <v>197</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4787,7 +4785,7 @@
         <v>214</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4950,7 +4948,7 @@
         <v>236</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5014,7 +5012,7 @@
         <v>244</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5118,7 +5116,7 @@
         <v>257</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5150,7 +5148,7 @@
         <v>262</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5166,7 +5164,7 @@
         <v>264</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5190,7 +5188,7 @@
         <v>267</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5206,7 +5204,7 @@
         <v>269</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5286,7 +5284,7 @@
         <v>280</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5302,7 +5300,7 @@
         <v>283</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5350,7 +5348,7 @@
         <v>292</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5494,7 +5492,7 @@
         <v>313</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5542,7 +5540,7 @@
         <v>321</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5662,7 +5660,7 @@
         <v>338</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5678,7 +5676,7 @@
         <v>340</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5918,7 +5916,7 @@
         <v>379</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6150,7 +6148,7 @@
         <v>412</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6278,7 +6276,7 @@
         <v>426</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6302,7 +6300,7 @@
         <v>429</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6310,7 +6308,7 @@
         <v>430</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6342,7 +6340,7 @@
         <v>434</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6366,7 +6364,7 @@
         <v>437</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6374,7 +6372,7 @@
         <v>438</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6382,7 +6380,7 @@
         <v>439</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6430,7 +6428,7 @@
         <v>445</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6486,7 +6484,7 @@
         <v>452</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6494,7 +6492,7 @@
         <v>453</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6566,7 +6564,7 @@
         <v>462</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6678,7 +6676,7 @@
         <v>476</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6702,7 +6700,7 @@
         <v>479</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6710,7 +6708,7 @@
         <v>480</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6734,7 +6732,7 @@
         <v>483</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6758,7 +6756,7 @@
         <v>486</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6766,7 +6764,7 @@
         <v>487</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6774,7 +6772,7 @@
         <v>488</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6782,7 +6780,7 @@
         <v>489</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6838,7 +6836,7 @@
         <v>496</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6886,7 +6884,7 @@
         <v>502</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6910,7 +6908,7 @@
         <v>505</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6998,7 +6996,7 @@
         <v>515</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7006,7 +7004,7 @@
         <v>516</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7022,7 +7020,7 @@
         <v>518</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7094,7 +7092,7 @@
         <v>527</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7102,7 +7100,7 @@
         <v>528</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7126,7 +7124,7 @@
         <v>531</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7158,7 +7156,7 @@
         <v>535</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7198,7 +7196,7 @@
         <v>540</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7222,7 +7220,7 @@
         <v>543</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7350,7 +7348,7 @@
         <v>558</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7358,7 +7356,7 @@
         <v>559</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7422,7 +7420,7 @@
         <v>567</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7502,7 +7500,7 @@
         <v>577</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7574,7 +7572,7 @@
         <v>586</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7582,7 +7580,7 @@
         <v>587</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7606,7 +7604,7 @@
         <v>590</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7686,7 +7684,7 @@
         <v>600</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7702,7 +7700,7 @@
         <v>602</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7718,7 +7716,7 @@
         <v>604</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7726,7 +7724,7 @@
         <v>605</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7822,7 +7820,7 @@
         <v>617</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7958,7 +7956,7 @@
         <v>634</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7990,7 +7988,7 @@
         <v>638</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8022,7 +8020,7 @@
         <v>642</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8038,7 +8036,7 @@
         <v>644</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8062,7 +8060,7 @@
         <v>647</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8070,7 +8068,7 @@
         <v>648</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8126,7 +8124,7 @@
         <v>655</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8198,7 +8196,7 @@
         <v>664</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8222,7 +8220,7 @@
         <v>667</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="611" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8230,7 +8228,7 @@
         <v>668</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8326,7 +8324,7 @@
         <v>680</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8358,7 +8356,7 @@
         <v>684</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="628" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8374,7 +8372,7 @@
         <v>686</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="630" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8382,7 +8380,7 @@
         <v>687</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8390,7 +8388,7 @@
         <v>688</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8553,7 +8551,7 @@
         <v>716</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="652" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8561,7 +8559,7 @@
         <v>717</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="653" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9049,7 +9047,7 @@
         <v>779</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="714" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
@@ -9057,7 +9055,7 @@
         <v>780</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9089,7 +9087,7 @@
         <v>784</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="719" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
@@ -9153,7 +9151,7 @@
         <v>792</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9193,7 +9191,7 @@
         <v>797</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="732" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9329,7 +9327,7 @@
         <v>815</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="749" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
@@ -9345,7 +9343,7 @@
         <v>817</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="751" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
@@ -9353,7 +9351,7 @@
         <v>818</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="752" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9401,7 +9399,7 @@
         <v>824</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="758" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9522,7 +9520,7 @@
         <v>839</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9546,7 +9544,7 @@
         <v>842</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
     </row>
     <row r="776" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9655,87 +9653,87 @@
     </row>
     <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A789" s="12" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A790" s="12" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A791" s="12" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A792" s="12" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="793" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="12" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="794" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="12" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="795" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="12" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="796" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="12" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A797" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="B797" s="2" t="s">
         <v>888</v>
-      </c>
-      <c r="B797" s="2" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A798" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="799" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A799" s="12" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B799" s="5" t="s">
         <v>860</v>
@@ -9743,7 +9741,7 @@
     </row>
     <row r="800" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A800" s="12" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B800" s="5" t="s">
         <v>860</v>
@@ -9751,7 +9749,7 @@
     </row>
     <row r="801" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A801" s="12" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B801" s="5" t="s">
         <v>860</v>
@@ -9759,7 +9757,7 @@
     </row>
     <row r="802" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A802" s="12" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>727</v>
@@ -9767,7 +9765,7 @@
     </row>
     <row r="803" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A803" s="12" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B803" s="3" t="s">
         <v>727</v>
@@ -9775,7 +9773,7 @@
     </row>
     <row r="804" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A804" s="12" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B804" s="3" t="s">
         <v>727</v>
@@ -9783,7 +9781,7 @@
     </row>
     <row r="805" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A805" s="12" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B805" s="3" t="s">
         <v>727</v>
@@ -9791,7 +9789,7 @@
     </row>
     <row r="806" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A806" s="12" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B806" s="5" t="s">
         <v>860</v>
@@ -9799,7 +9797,7 @@
     </row>
     <row r="807" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="12" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B807" s="5" t="s">
         <v>860</v>
@@ -9807,7 +9805,7 @@
     </row>
     <row r="808" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B808" s="2" t="s">
         <v>92</v>
@@ -9815,7 +9813,7 @@
     </row>
     <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A809" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B809" s="2" t="s">
         <v>92</v>
@@ -9823,7 +9821,7 @@
     </row>
     <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A810" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B810" s="2" t="s">
         <v>92</v>
@@ -9831,7 +9829,7 @@
     </row>
     <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A811" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B811" s="2" t="s">
         <v>92</v>
@@ -9839,7 +9837,7 @@
     </row>
     <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A812" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B812" s="2" t="s">
         <v>92</v>
@@ -9847,7 +9845,7 @@
     </row>
     <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B813" s="2" t="s">
         <v>92</v>
@@ -9855,7 +9853,7 @@
     </row>
     <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A814" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B814" s="2" t="s">
         <v>92</v>
@@ -9863,7 +9861,7 @@
     </row>
     <row r="815" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B815" s="2" t="s">
         <v>92</v>
@@ -9871,7 +9869,7 @@
     </row>
     <row r="816" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B816" s="2" t="s">
         <v>92</v>
@@ -9879,7 +9877,7 @@
     </row>
     <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A817" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B817" s="2" t="s">
         <v>92</v>
@@ -9887,7 +9885,7 @@
     </row>
     <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A818" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B818" s="2" t="s">
         <v>92</v>
@@ -9895,7 +9893,7 @@
     </row>
     <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A819" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B819" s="2" t="s">
         <v>92</v>
@@ -9903,7 +9901,7 @@
     </row>
     <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A820" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B820" s="2" t="s">
         <v>92</v>
@@ -9911,7 +9909,7 @@
     </row>
     <row r="821" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A821" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B821" s="3" t="s">
         <v>60</v>
@@ -9919,7 +9917,7 @@
     </row>
     <row r="822" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A822" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B822" s="5" t="s">
         <v>860</v>
@@ -9927,7 +9925,7 @@
     </row>
     <row r="823" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A823" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B823" s="3" t="s">
         <v>60</v>
@@ -9935,7 +9933,7 @@
     </row>
     <row r="824" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A824" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B824" s="3" t="s">
         <v>61</v>
@@ -9943,7 +9941,7 @@
     </row>
     <row r="825" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A825" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B825" s="5" t="s">
         <v>60</v>
@@ -9951,7 +9949,7 @@
     </row>
     <row r="826" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B826" s="5" t="s">
         <v>60</v>
@@ -9959,7 +9957,7 @@
     </row>
     <row r="827" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A827" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B827" s="5" t="s">
         <v>60</v>
@@ -9967,7 +9965,7 @@
     </row>
     <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A828" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B828" s="6" t="s">
         <v>92</v>
@@ -9975,7 +9973,7 @@
     </row>
     <row r="829" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A829" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B829" s="5" t="s">
         <v>60</v>
@@ -9983,7 +9981,7 @@
     </row>
     <row r="830" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B830" s="5" t="s">
         <v>860</v>
@@ -9991,7 +9989,7 @@
     </row>
     <row r="831" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B831" s="5" t="s">
         <v>60</v>
@@ -9999,7 +9997,7 @@
     </row>
     <row r="832" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B832" s="5" t="s">
         <v>60</v>
@@ -10007,7 +10005,7 @@
     </row>
     <row r="833" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A833" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B833" s="5" t="s">
         <v>60</v>
@@ -10015,7 +10013,7 @@
     </row>
     <row r="834" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B834" s="3" t="s">
         <v>861</v>
@@ -10023,7 +10021,7 @@
     </row>
     <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A835" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B835" s="2" t="s">
         <v>102</v>
@@ -10031,7 +10029,7 @@
     </row>
     <row r="836" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A836" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B836" s="3" t="s">
         <v>187</v>
@@ -10039,7 +10037,7 @@
     </row>
     <row r="837" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A837" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B837" s="5" t="s">
         <v>61</v>
@@ -10047,7 +10045,7 @@
     </row>
     <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A838" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B838" s="2" t="s">
         <v>153</v>
@@ -10131,52 +10129,52 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
